--- a/app/config/tables/AQSP/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/AQSP/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\AQSP\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D218D27-84F4-46D4-81ED-0318C23241EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62FE62-7783-4588-A561-6D72AF6AA526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="15435" windowWidth="13680" windowHeight="4410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14415" yWindow="15435" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="264">
   <si>
     <t>type</t>
   </si>
@@ -261,15 +261,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>data('mes')&lt;12</t>
-  </si>
-  <si>
-    <t>se nao souber coloca zero, se for 12 acrescenta 1 ano</t>
-  </si>
-  <si>
-    <t>se for menos de 1 ano coloca zero</t>
-  </si>
-  <si>
     <t>Bafatá</t>
   </si>
   <si>
@@ -477,9 +468,6 @@
     <t>nome_acomp</t>
   </si>
   <si>
-    <t>Nome de Acompanhante</t>
-  </si>
-  <si>
     <t>tel_acomp</t>
   </si>
   <si>
@@ -598,6 +586,247 @@
   </si>
   <si>
     <t>medicacao_previa</t>
+  </si>
+  <si>
+    <t>if // medi_previo</t>
+  </si>
+  <si>
+    <t>data('medicacao_previa')=='1'</t>
+  </si>
+  <si>
+    <t>esp_medi_previo</t>
+  </si>
+  <si>
+    <t>Se sim, especifique as medicações</t>
+  </si>
+  <si>
+    <t>end if // medi_previo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfadoxina -pirimetamina </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Doses</t>
+  </si>
+  <si>
+    <t>Vomitou?</t>
+  </si>
+  <si>
+    <t>hora_vomito_SP</t>
+  </si>
+  <si>
+    <t>A hora que vomitou S.P?</t>
+  </si>
+  <si>
+    <t>doseSP</t>
+  </si>
+  <si>
+    <t>vomitou_SP</t>
+  </si>
+  <si>
+    <t>data('vomitou_SP')=='1'</t>
+  </si>
+  <si>
+    <t>date_SP</t>
+  </si>
+  <si>
+    <t>hora_SP</t>
+  </si>
+  <si>
+    <t>dose_SP</t>
+  </si>
+  <si>
+    <t>Amodiaquina</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>aq</t>
+  </si>
+  <si>
+    <t>hora_AQ</t>
+  </si>
+  <si>
+    <t>doseAQ</t>
+  </si>
+  <si>
+    <t>dose_AQ</t>
+  </si>
+  <si>
+    <t>vomitou_AQ</t>
+  </si>
+  <si>
+    <t>data('vomitou_AQ')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_AQ</t>
+  </si>
+  <si>
+    <t>date_AQ</t>
+  </si>
+  <si>
+    <t>A hora que vomitou AQ?</t>
+  </si>
+  <si>
+    <t>outro_medicamento</t>
+  </si>
+  <si>
+    <t>data('outro_medicamento')=='1'</t>
+  </si>
+  <si>
+    <t>lamina</t>
+  </si>
+  <si>
+    <t>medicamento_administrado</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
+  </si>
+  <si>
+    <t>outros_medicamentos</t>
+  </si>
+  <si>
+    <t>id_estudo=?</t>
+  </si>
+  <si>
+    <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
+  </si>
+  <si>
+    <t>75mg Amodiaquina</t>
+  </si>
+  <si>
+    <t>150mg Amodiaquina</t>
+  </si>
+  <si>
+    <t>500mg/25mg Sulfadoxina-Pirimetamina</t>
+  </si>
+  <si>
+    <t>Formulário de inclusão de caso: Dia 0</t>
+  </si>
+  <si>
+    <t>Nº de rastreio:</t>
+  </si>
+  <si>
+    <t>Código de lâmina de verificação:</t>
+  </si>
+  <si>
+    <t>Código de estudo:</t>
+  </si>
+  <si>
+    <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
+  </si>
+  <si>
+    <t>Nome da Mãe</t>
+  </si>
+  <si>
+    <t>selected(data('acompanhante'),'4')</t>
+  </si>
+  <si>
+    <t>!selected(data('acompanhante'), '1') &amp;&amp; !selected(data('acompanhante'), '2')</t>
+  </si>
+  <si>
+    <t>[data('id_estudo')]</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo')}</t>
+  </si>
+  <si>
+    <t>Colheu-se amostra de sangue para a lâmina?</t>
+  </si>
+  <si>
+    <t>n_rastreio</t>
+  </si>
+  <si>
+    <t>Estás a fazer rastreio no Centro de Saúde de {{data.cs}}, no dia {{data.date_rastreio}}
+Número de rasteio: {{data.id_rastreio}}</t>
+  </si>
+  <si>
+    <t>date_rastreio</t>
+  </si>
+  <si>
+    <t>nota_dn</t>
+  </si>
+  <si>
+    <t>Data de Nascimento: {{data.dn}}</t>
+  </si>
+  <si>
+    <t>nota_nome</t>
+  </si>
+  <si>
+    <t>nota_ano</t>
+  </si>
+  <si>
+    <t>febre_history</t>
+  </si>
+  <si>
+    <t>nota_temperatura</t>
+  </si>
+  <si>
+    <t>Temperatura Axilar é {{data.temperatura}}</t>
+  </si>
+  <si>
+    <t>nota_nomesexo</t>
+  </si>
+  <si>
+    <t>nota_anomes</t>
+  </si>
+  <si>
+    <t>nota_dob</t>
+  </si>
+  <si>
+    <t>nota_acompanhante</t>
+  </si>
+  <si>
+    <t>nota_cs</t>
+  </si>
+  <si>
+    <t>TDR</t>
+  </si>
+  <si>
+    <t>resultado_TDR</t>
+  </si>
+  <si>
+    <t>via_oral</t>
+  </si>
+  <si>
+    <t>desnutrido</t>
+  </si>
+  <si>
+    <t>paludismo_grave</t>
+  </si>
+  <si>
+    <t>especificar_condicao</t>
+  </si>
+  <si>
+    <t>consentimento</t>
+  </si>
+  <si>
+    <t>nota_condicao</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>O nome da criança é {{data.nome}}</t>
+  </si>
+  <si>
+    <t>Tem {{data.ano}} anos e {{data.mes}} meses</t>
   </si>
   <si>
     <r>
@@ -612,7 +841,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Todas as medicaçºoes prévias, incluindo remédios naturais e homeopáticos, tomadas nos 14 dias anterires)</t>
+      <t>Todas as medicações prévias, incluindo remédios naturais e homeopáticos, tomadas nos 14 dias anterires)</t>
     </r>
     <r>
       <rPr>
@@ -626,254 +855,7 @@
     </r>
   </si>
   <si>
-    <t>if // medi_previo</t>
-  </si>
-  <si>
-    <t>data('medicacao_previa')=='1'</t>
-  </si>
-  <si>
-    <t>esp_medi_previo</t>
-  </si>
-  <si>
-    <t>Se sim, especifique as medicações</t>
-  </si>
-  <si>
-    <t>end if // medi_previo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sulfadoxina -pirimetamina </t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Doses</t>
-  </si>
-  <si>
-    <t>Vomitou?</t>
-  </si>
-  <si>
-    <t>hora_vomito_SP</t>
-  </si>
-  <si>
-    <t>A hora que vomitou S.P?</t>
-  </si>
-  <si>
-    <t>doseSP</t>
-  </si>
-  <si>
-    <t>vomitou_SP</t>
-  </si>
-  <si>
-    <t>data('vomitou_SP')=='1'</t>
-  </si>
-  <si>
-    <t>date_SP</t>
-  </si>
-  <si>
-    <t>hora_SP</t>
-  </si>
-  <si>
-    <t>dose_SP</t>
-  </si>
-  <si>
-    <t>Amodiaquina</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>hora_AQ</t>
-  </si>
-  <si>
-    <t>doseAQ</t>
-  </si>
-  <si>
-    <t>dose_AQ</t>
-  </si>
-  <si>
-    <t>vomitou_AQ</t>
-  </si>
-  <si>
-    <t>data('vomitou_AQ')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_AQ</t>
-  </si>
-  <si>
-    <t>date_AQ</t>
-  </si>
-  <si>
-    <t>A hora que vomitou AQ?</t>
-  </si>
-  <si>
-    <t>outro_medicamento</t>
-  </si>
-  <si>
-    <t>data('outro_medicamento')=='1'</t>
-  </si>
-  <si>
-    <t>lamina</t>
-  </si>
-  <si>
-    <t>medicamento_administrado</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>Outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
-  </si>
-  <si>
-    <t>outros_medicamentos</t>
-  </si>
-  <si>
-    <t>id_estudo=?</t>
-  </si>
-  <si>
-    <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
-  </si>
-  <si>
-    <t>75mg Amodiaquina</t>
-  </si>
-  <si>
-    <t>150mg Amodiaquina</t>
-  </si>
-  <si>
-    <t>500mg/25mg Sulfadoxina-Pirimetamina</t>
-  </si>
-  <si>
-    <t>AQSP</t>
-  </si>
-  <si>
-    <t>Formulário de inclusão de caso: Dia 0</t>
-  </si>
-  <si>
-    <t>Nº de rastreio:</t>
-  </si>
-  <si>
-    <t>Código de lâmina de verificação:</t>
-  </si>
-  <si>
-    <t>Código de estudo:</t>
-  </si>
-  <si>
-    <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
-  </si>
-  <si>
-    <t>Nome da Mãe</t>
-  </si>
-  <si>
-    <t>selected(data('acompanhante'),'4')</t>
-  </si>
-  <si>
-    <t>!selected(data('acompanhante'), '1') &amp;&amp; !selected(data('acompanhante'), '2')</t>
-  </si>
-  <si>
-    <t>[data('id_estudo')]</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo')}</t>
-  </si>
-  <si>
-    <t>Colheu-se amostra de sangue para a lâmina?</t>
-  </si>
-  <si>
-    <t>n_rastreio</t>
-  </si>
-  <si>
-    <t>Estás a fazer rastreio no Centro de Saúde de {{data.cs}}, no dia {{data.date_rastreio}}
-Número de rasteio: {{data.id_rastreio}}</t>
-  </si>
-  <si>
-    <t>date_rastreio</t>
-  </si>
-  <si>
-    <t>nota_dn</t>
-  </si>
-  <si>
-    <t>Data de Nascimento: {{data.dn}}</t>
-  </si>
-  <si>
-    <t>Idades em anos: {{data.ano}}</t>
-  </si>
-  <si>
-    <t>Idade em meses: {{data.mes}}</t>
-  </si>
-  <si>
-    <t>nota_nome</t>
-  </si>
-  <si>
-    <t>nota_ano</t>
-  </si>
-  <si>
-    <t>nota_mes</t>
-  </si>
-  <si>
-    <t>febre_history</t>
-  </si>
-  <si>
-    <t>nota_temperatura</t>
-  </si>
-  <si>
-    <t>Temperatura Axilar é {{data.temperatura}}</t>
-  </si>
-  <si>
-    <t>nota_nomesexo</t>
-  </si>
-  <si>
-    <t>nota_anomes</t>
-  </si>
-  <si>
-    <t>nota_dob</t>
-  </si>
-  <si>
-    <t>nota_acompanhante</t>
-  </si>
-  <si>
-    <t>nota_cs</t>
-  </si>
-  <si>
-    <t>TDR</t>
-  </si>
-  <si>
-    <t>resultado_TDR</t>
-  </si>
-  <si>
-    <t>via_oral</t>
-  </si>
-  <si>
-    <t>desnutrido</t>
-  </si>
-  <si>
-    <t>paludismo_grave</t>
-  </si>
-  <si>
-    <t>especificar_condicao</t>
-  </si>
-  <si>
-    <t>consentimento</t>
-  </si>
-  <si>
-    <t>nota_condicao</t>
-  </si>
-  <si>
-    <t>Nome e Apelido {{data.nome}}</t>
-  </si>
-  <si>
-    <t>instance_name</t>
+    <t>Nome de Acompanhante:</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1554,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,15 +1605,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1635,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1773,10 +1755,10 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1786,10 +1768,10 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1799,10 +1781,10 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1812,10 +1794,10 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1844,10 +1826,10 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1868,7 +1850,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1881,10 +1863,10 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -1903,386 +1885,377 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="8"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>52</v>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="2" t="s">
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="2" t="s">
+    </row>
+    <row r="27" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
+      <c r="G39" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="9"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
       <c r="D47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C49" s="8"/>
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C50" s="8"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A51"/>
       <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>153</v>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55"/>
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>52</v>
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,13 +2263,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2304,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,215 +2305,212 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>163</v>
+      <c r="B61" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="8"/>
+      <c r="D66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="D70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
-      <c r="D65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="8"/>
-      <c r="D67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="13" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>190</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="13"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
@@ -2549,9 +2519,9 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="12"/>
@@ -2561,28 +2531,32 @@
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="B79" s="10"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E79" s="10"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="10"/>
+      <c r="F79" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="13" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H80" s="10"/>
     </row>
@@ -2590,14 +2564,14 @@
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -2605,14 +2579,16 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="F82" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -2623,100 +2599,98 @@
         <v>10</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G84" s="10" t="s">
+      <c r="B84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H84" s="10"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D86" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="B86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
+      <c r="B89" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="B90" s="21"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="E90" s="21"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="21"/>
+      <c r="F90" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="H90" s="21"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E91" s="21"/>
       <c r="F91" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="H91" s="21"/>
     </row>
@@ -2724,14 +2698,14 @@
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="13" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="13" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H92" s="21"/>
     </row>
@@ -2739,14 +2713,16 @@
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="F93" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H93" s="21"/>
     </row>
@@ -2757,149 +2733,143 @@
         <v>10</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="F94" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G94" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H94" s="21"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="21"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D97" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="B97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
+    <row r="100" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>223</v>
-      </c>
+      <c r="B101" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="21"/>
       <c r="H101" s="21"/>
     </row>
-    <row r="102" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B102" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>218</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C102" s="21"/>
       <c r="D102" s="13"/>
       <c r="E102" s="21"/>
       <c r="F102" s="13"/>
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="21" t="s">
-        <v>52</v>
-      </c>
+    <row r="103" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="21"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="E103" s="21"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="21"/>
+      <c r="F103" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
       <c r="D104" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="21"/>
       <c r="H104" s="21"/>
     </row>
-    <row r="105" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="21"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="C105" s="21"/>
-      <c r="D105" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>220</v>
-      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="21"/>
       <c r="F105" s="13"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="13"/>
@@ -2908,55 +2878,52 @@
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
     </row>
-    <row r="107" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B107" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D108" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="B108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:12" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="K109" s="25"/>
       <c r="L109" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F110" s="24"/>
       <c r="K110" s="25"/>
@@ -2972,7 +2939,7 @@
     </row>
     <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>4</v>
@@ -2981,7 +2948,7 @@
         <v>63</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -2991,7 +2958,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -3019,16 +2986,16 @@
     </row>
     <row r="120" spans="1:11" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D120" s="26" t="s">
         <v>62</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K120" s="27"/>
     </row>
@@ -3154,7 +3121,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -3165,7 +3132,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -3213,10 +3180,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,10 +3191,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,86 +3202,86 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,35 +3293,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,35 +3334,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,35 +3377,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,46 +3417,46 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3469,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3513,24 +3480,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +3505,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3549,24 +3516,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,35 +3544,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,24 +3583,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,24 +3611,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4060,7 +4027,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4114,54 +4081,54 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
         <v>220</v>
       </c>
-      <c r="B3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>225</v>
-      </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4257,10 +4224,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,10 +4242,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D9:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4300,7 +4267,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4275,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4283,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4291,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4299,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4311,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4319,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4351,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,15 +4383,15 @@
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4447,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4455,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4471,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4479,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4487,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4495,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4503,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4511,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,44 +4519,44 @@
         <v>62</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>62</v>
+      <c r="A38" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>128</v>
@@ -4600,55 +4567,55 @@
         <v>59</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,31 +4623,31 @@
         <v>59</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>151</v>
+      <c r="A52" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4688,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4671,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4679,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4687,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4728,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4703,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,12 +4719,12 @@
         <v>10</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>172</v>
@@ -4765,18 +4732,18 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,31 +4751,31 @@
         <v>62</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,47 +4783,47 @@
         <v>10</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,39 +4831,39 @@
         <v>10</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,31 +4871,23 @@
         <v>10</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
